--- a/data/predictions/gender/divorce/leveled/leandemocrat.xlsx
+++ b/data/predictions/gender/divorce/leveled/leandemocrat.xlsx
@@ -826,7 +826,7 @@
         <v>0.2488091991371119</v>
       </c>
       <c r="D34">
-        <v>0.2518167231468873</v>
+        <v>0.3112635652529866</v>
       </c>
       <c r="G34">
         <v>0.5181199441997244</v>
@@ -840,7 +840,7 @@
         <v>0.2488912186097874</v>
       </c>
       <c r="D35">
-        <v>0.2420899285108079</v>
+        <v>0.2698623921371418</v>
       </c>
       <c r="G35">
         <v>0.5219918428362627</v>
@@ -854,7 +854,7 @@
         <v>0.2455805120391975</v>
       </c>
       <c r="D36">
-        <v>0.244226022019999</v>
+        <v>0.3283787647376829</v>
       </c>
       <c r="G36">
         <v>0.6222599070473421</v>
@@ -868,7 +868,7 @@
         <v>0.2407375980073856</v>
       </c>
       <c r="D37">
-        <v>0.245452193075573</v>
+        <v>0.2235786697542896</v>
       </c>
       <c r="G37">
         <v>0.5982360694514305</v>
@@ -882,7 +882,7 @@
         <v>0.2352027154304317</v>
       </c>
       <c r="D38">
-        <v>0.2467481581696187</v>
+        <v>0.2803351457244868</v>
       </c>
       <c r="G38">
         <v>0.5361846051170734</v>
@@ -896,7 +896,7 @@
         <v>0.2293553291752329</v>
       </c>
       <c r="D39">
-        <v>0.2480387698318562</v>
+        <v>0.2535493464594352</v>
       </c>
       <c r="G39">
         <v>0.591238371168889</v>
